--- a/finalreport/summary_tables/reproducible_summary_tables.xlsx
+++ b/finalreport/summary_tables/reproducible_summary_tables.xlsx
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>8.27</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" t="n">
-        <v>28.08</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>15.38</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="6">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C6" t="n">
-        <v>28.27</v>
+        <v>25.38</v>
       </c>
     </row>
   </sheetData>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.39</v>
+        <v>3.2</v>
       </c>
       <c r="C2" t="n">
-        <v>4.71</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="3">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.64</v>
+        <v>5.4</v>
       </c>
       <c r="C3" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.39</v>
+        <v>7.04</v>
       </c>
       <c r="C4" t="n">
-        <v>5.76</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.27</v>
+        <v>6.92</v>
       </c>
       <c r="C5" t="n">
-        <v>5.6</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.22</v>
+        <v>6.8</v>
       </c>
       <c r="C6" t="n">
-        <v>6.67</v>
+        <v>7.23</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +667,10 @@
         <v>57550</v>
       </c>
       <c r="D2" t="n">
-        <v>5.07</v>
+        <v>5.21</v>
       </c>
       <c r="E2" t="n">
-        <v>5.38</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         <v>116630</v>
       </c>
       <c r="D3" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="E3" t="n">
-        <v>6.03</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="4">
@@ -702,13 +702,13 @@
         <v>206</v>
       </c>
       <c r="C4" t="n">
-        <v>154582</v>
+        <v>112000</v>
       </c>
       <c r="D4" t="n">
-        <v>5.92</v>
+        <v>7.1</v>
       </c>
       <c r="E4" t="n">
-        <v>6.34</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="5">
@@ -724,10 +724,10 @@
         <v>89334</v>
       </c>
       <c r="D5" t="n">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="E5" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="6">
@@ -743,10 +743,10 @@
         <v>75914</v>
       </c>
       <c r="D6" t="n">
-        <v>5.03</v>
+        <v>5.44</v>
       </c>
       <c r="E6" t="n">
-        <v>5.35</v>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.53</v>
+        <v>5.27</v>
       </c>
       <c r="C2" t="n">
-        <v>5.88</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.09</v>
+        <v>4.93</v>
       </c>
       <c r="C3" t="n">
-        <v>5.44</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="4">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.65</v>
+        <v>6.4</v>
       </c>
       <c r="C4" t="n">
-        <v>6.02</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="5">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.93</v>
+        <v>7.2</v>
       </c>
       <c r="C5" t="n">
-        <v>6.36</v>
+        <v>7.71</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
         <v>210</v>
       </c>
       <c r="C2" t="n">
-        <v>140559</v>
+        <v>118860</v>
       </c>
     </row>
     <row r="3">
@@ -896,7 +896,7 @@
         <v>310</v>
       </c>
       <c r="C3" t="n">
-        <v>99486</v>
+        <v>85889</v>
       </c>
     </row>
     <row r="4">
@@ -907,7 +907,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>41.29</v>
+        <v>38.39</v>
       </c>
     </row>
   </sheetData>
